--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Zenker's diverticulum_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Zenker's diverticulum_gen_overall.xlsx
@@ -462,22 +462,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a hallmark symptom of Zenker's diverticulum, often presenting as a progressive difficulty in swallowing solids and liquids.</t>
+          <t>Dysphagia, especially for both solids and liquids, is a common symptom of Zenker's diverticulum due to the obstruction caused by the diverticulum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of significant weight loss</t>
+          <t>Absence of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If a patient does not report significant weight loss, it may suggest that swallowing difficulties are not severe enough to indicate Zenker's diverticulum.</t>
+          <t>The absence of dysphagia is a strong indicator against Zenker's diverticulum, as dysphagia is a hallmark symptom of the condition.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with Zenker's diverticulum frequently experience regurgitation of undigested food, which occurs due to the accumulation of food in the diverticulum.</t>
+          <t>Regurgitation of undigested food is a classic symptom of Zenker's diverticulum as food can get trapped in the diverticulum and be regurgitated later.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on evaluation</t>
+          <t>No regurgitation symptoms</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal esophageal motility tests would indicate that there is no underlying motility disorder, which is often associated with Zenker's diverticulum.</t>
+          <t>If the patient does not experience regurgitation of undigested food, it is less likely they have Zenker's diverticulum, which typically causes this symptom.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Halitosis (bad breath)</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Halitosis can occur due to food stagnation in the diverticulum, leading to bacterial overgrowth and foul-smelling breath.</t>
+          <t>Halitosis, or bad breath, occurs due to food retention in the diverticulum, which decomposes and causes foul odor.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of aspiration pneumonia</t>
+          <t>No halitosis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of aspiration pneumonia history may suggest that the patient does not have significant swallowing issues typically seen in Zenker's diverticulum.</t>
+          <t>The absence of halitosis suggests against Zenker's diverticulum, as food retention in the diverticulum often leads to bad breath.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Coughing or choking during meals</t>
+          <t>Chronic cough</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coughing or choking can occur as food enters the diverticulum or due to aspiration, which is common in patients with Zenker's diverticulum.</t>
+          <t>Chronic cough can result from aspiration of food or saliva that is regurgitated from the diverticulum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No complaints of regurgitation</t>
+          <t>No chronic cough</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If the patient does not report regurgitation, it may indicate that the diverticulum is not present, as this is a common symptom.</t>
+          <t>Without a chronic cough, the likelihood of Zenker's diverticulum decreases, as aspiration from the diverticulum can cause coughing.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Weight loss due to eating difficulties</t>
+          <t>Sensation of a lump in the throat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Weight loss is often reported in patients with Zenker's diverticulum as a result of the inability to eat properly due to swallowing difficulties.</t>
+          <t>A sensation of a lump in the throat, or globus sensation, is often reported by patients with Zenker's diverticulum due to the physical presence of the diverticulum.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal oral intake without difficulty</t>
+          <t>No sensation of a lump in the throat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If the patient can eat normally without difficulty, it is less likely that Zenker's diverticulum is present.</t>
+          <t>The absence of a sensation of a lump in the throat argues against Zenker's diverticulum, which often causes this sensation due to the diverticulum's presence.</t>
         </is>
       </c>
     </row>
@@ -618,39 +618,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom associated with Zenker's diverticulum due to the obstruction caused by the diverticulum.</t>
+          <t>Dysphagia is a common symptom in patients with Zenker's diverticulum due to the outpouching affecting the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of esophageal cancer</t>
+          <t>No history of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of esophageal cancer, which can mimic symptoms of Zenker's diverticulum, suggests a lower likelihood of the diverticulum being present.</t>
+          <t>The absence of dysphagia makes Zenker's diverticulum less likely, as it is a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of esophageal diverticulum</t>
+          <t>Previous diagnosis of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A past diagnosis of esophageal diverticulum strongly supports the likelihood of Zenker's diverticulum being present.</t>
+          <t>Esophageal motility disorders can predispose individuals to develop Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of gastroesophageal reflux disease (GERD)</t>
+          <t>No history of esophageal disorders</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERD is a common condition that can cause similar symptoms; its absence may indicate that Zenker's diverticulum is less likely.</t>
+          <t>Without a history of esophageal disorders, the likelihood of having Zenker's diverticulum decreases.</t>
         </is>
       </c>
     </row>
@@ -662,61 +662,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic cough can occur due to aspiration from food trapped in the diverticulum, indicating a higher likelihood of Zenker's diverticulum.</t>
+          <t>Chronic cough can be associated with Zenker's diverticulum due to aspiration or irritation from the diverticulum.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No previous surgeries on the neck or throat</t>
+          <t>No history of chronic cough</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of prior surgeries in the neck or throat region reduces the likelihood of structural abnormalities like Zenker's diverticulum.</t>
+          <t>The absence of chronic cough reduces the likelihood of Zenker's diverticulum, which can cause cough due to aspiration.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous surgical intervention for esophageal issues</t>
+          <t>Past episodes of aspiration pneumonia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prior surgeries related to esophageal problems may increase the risk of developing Zenker's diverticulum.</t>
+          <t>Aspiration pneumonia can occur due to food or liquid entering the lungs from the diverticulum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of neurological disorders</t>
+          <t>No episodes of aspiration pneumonia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Neurological disorders can contribute to swallowing difficulties; their absence suggests a lower risk for Zenker's diverticulum.</t>
+          <t>Without episodes of aspiration pneumonia, the presence of Zenker's diverticulum is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of significant weight loss</t>
+          <t>History of regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Significant weight loss can occur due to difficulty swallowing, which is often seen in patients with Zenker's diverticulum.</t>
+          <t>Regurgitation of undigested food is a classic symptom of Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No significant history of chronic respiratory issues</t>
+          <t>No history of regurgitation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Chronic respiratory issues can lead to similar symptoms; their absence may indicate that Zenker's diverticulum is not present.</t>
+          <t>The absence of regurgitation of undigested food makes Zenker's diverticulum less likely.</t>
         </is>
       </c>
     </row>
@@ -764,66 +764,66 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Older age group (typically over 60 years)</t>
+          <t>Older age</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zenker's diverticulum is more prevalent in older adults due to age-related changes in the esophagus.</t>
+          <t>Zenker's diverticulum is more common in older adults, typically over the age of 60, due to age-related changes in the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of esophageal symptoms such as dysphagia or regurgitation</t>
+          <t>Young age</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of these symptoms makes Zenker's diverticulum less likely, as they are common presentations of the condition.</t>
+          <t>Zenker's diverticulum is rare in younger individuals, making it less likely in this age group.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of chronic cough or throat clearing</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronic cough can lead to increased pressure in the esophagus, contributing to the formation of diverticula.</t>
+          <t>Smoking can contribute to esophageal motility disorders, which are associated with the development of Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No significant weight loss or nutritional deficiencies</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with Zenker's diverticulum often experience weight loss due to difficulty swallowing, so its absence argues against the diagnosis.</t>
+          <t>Absence of smoking history reduces the risk of esophageal motility disorders, which are associated with Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Chronic alcohol use</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERD can contribute to esophageal motility issues, which are associated with the development of Zenker's diverticulum.</t>
+          <t>Chronic alcohol use can lead to esophageal motility issues, increasing the risk of Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of chronic throat infections</t>
+          <t>No alcohol use</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic infections can lead to esophageal changes that predispose to diverticula; their absence suggests a lower risk.</t>
+          <t>Lack of alcohol use decreases the likelihood of esophageal motility issues, reducing the risk of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
@@ -835,39 +835,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genetic predisposition may play a role in the development of esophageal diverticula, including Zenker's.</t>
+          <t>A family history of esophageal disorders may suggest a genetic predisposition to conditions like Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Active participation in regular physical activity</t>
+          <t>No family history of esophageal disorders</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular exercise is associated with better overall health and may reduce the risk of esophageal motility disorders.</t>
+          <t>Without a family history of esophageal disorders, the genetic predisposition to Zenker's diverticulum is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lifestyle factors such as smoking or heavy alcohol use</t>
+          <t>Occupation involving heavy lifting</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These behaviors can lead to esophageal irritation and motility issues, increasing the risk of diverticulum formation.</t>
+          <t>Repeated straining and increased intra-abdominal pressure from heavy lifting may contribute to the development of esophageal diverticula.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No family history of esophageal or gastrointestinal disorders</t>
+          <t>Sedentary occupation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a family history suggests a lower genetic predisposition to conditions like Zenker's diverticulum.</t>
+          <t>A sedentary occupation is less likely to involve activities that increase intra-abdominal pressure, reducing the risk of esophageal diverticula.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Palpable neck mass</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Zenker's diverticulum due to the obstruction caused by the diverticulum.</t>
+          <t>A palpable neck mass can occur due to the outpouching of the esophageal wall, which is characteristic of Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal swallowing function on examination</t>
+          <t>Normal neck examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal swallowing function suggests that there is no obstruction or diverticulum present, making Zenker's diverticulum unlikely.</t>
+          <t>A normal neck examination without any palpable mass or abnormal sounds reduces the likelihood of Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Halitosis (bad breath)</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Halitosis can occur due to food stagnation in the diverticulum, which is a characteristic finding in Zenker's diverticulum.</t>
+          <t>Halitosis, or bad breath, is often due to food retention in the diverticulum, which is more specific to Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of foul breath</t>
+          <t>Absence of halitosis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of halitosis indicates that there is no food stagnation, which is inconsistent with Zenker's diverticulum.</t>
+          <t>The absence of halitosis suggests that there is no food retention, which is less consistent with Zenker's diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Regurgitation of undigested food</t>
+          <t>Gurgling sounds in the neck</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients may experience regurgitation of undigested food, which is indicative of Zenker's diverticulum due to the accumulation of food in the diverticulum.</t>
+          <t>Gurgling sounds in the neck upon palpation or swallowing are indicative of air and fluid in the diverticulum, which is specific to Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of aspiration</t>
+          <t>No regurgitation</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of aspiration during swallowing tests suggests that the esophagus is functioning normally, making Zenker's diverticulum less likely.</t>
+          <t>The absence of regurgitation of undigested food makes Zenker's diverticulum less likely, as this is a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Weight loss can occur as a result of difficulty swallowing and eating due to Zenker's diverticulum.</t>
+          <t>Regurgitation of undigested food, especially long after eating, is a specific symptom due to food being trapped in the diverticulum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal weight</t>
+          <t>Normal swallowing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maintaining a normal weight indicates that the patient is able to eat and swallow without difficulty, which contradicts the presence of Zenker's diverticulum.</t>
+          <t>Normal swallowing without difficulty suggests the absence of an obstructive diverticulum.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cervical mass on physical examination</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A palpable cervical mass may be noted, which can be the diverticulum itself, supporting the diagnosis of Zenker's diverticulum.</t>
+          <t>Dysphagia, or difficulty swallowing, is a common symptom due to the obstruction caused by the diverticulum.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No palpable mass in the neck</t>
+          <t>No gurgling sounds</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of a palpable mass suggests that there is no diverticulum present, which is a key finding in Zenker's diverticulum.</t>
+          <t>The absence of gurgling sounds in the neck upon examination suggests there is no diverticulum trapping air or fluid.</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing a diverticulum in the pharyngeal region</t>
+          <t>Barium swallow study showing a posterior esophageal outpouching</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This imaging test is highly specific for Zenker's diverticulum, as it directly visualizes the diverticulum's presence.</t>
+          <t>A barium swallow study revealing a posterior esophageal outpouching is highly specific for Zenker's diverticulum, as this finding directly visualizes the diverticulum.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,95 +1081,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal result on this test suggests that there is no diverticulum present, making Zenker's diverticulum unlikely.</t>
+          <t>A normal barium swallow study is strong evidence against Zenker's diverticulum, as this test is sensitive for detecting diverticula.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophagram demonstrating a pouch formation above the upper esophageal sphincter</t>
+          <t>Endoscopic visualization of a diverticulum in the hypopharynx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of a pouch is characteristic of Zenker's diverticulum and is a strong indicator of the diagnosis.</t>
+          <t>Endoscopy can directly visualize the presence of a diverticulum, which is a definitive finding for Zenker's diverticulum.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative endoscopic evaluation</t>
+          <t>Endoscopy showing no diverticulum</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If endoscopy shows no diverticulum, it strongly argues against the diagnosis of Zenker's diverticulum.</t>
+          <t>Endoscopy that does not reveal a diverticulum is strong evidence against Zenker's diverticulum, as it directly visualizes the esophageal structure.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Endoscopic findings revealing a diverticulum at the level of the cricopharyngeus muscle</t>
+          <t>Esophagram showing a pharyngoesophageal diverticulum</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direct visualization during endoscopy can confirm the diagnosis by showing the diverticulum's location.</t>
+          <t>An esophagram that shows a pharyngoesophageal diverticulum is highly indicative of Zenker's diverticulum due to its specificity.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Normal esophagram</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal motility findings would indicate that there is no dysfunction associated with Zenker's diverticulum.</t>
+          <t>A normal esophagram is evidence against Zenker's diverticulum, as it would typically show a diverticulum if present.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT scan showing a pharyngeal diverticulum</t>
+          <t>Manometry showing abnormal upper esophageal sphincter (UES) relaxation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Computed tomography can provide detailed images that confirm the presence of a diverticulum, supporting the diagnosis.</t>
+          <t>Abnormal UES relaxation on manometry is often associated with Zenker's diverticulum, as it can contribute to the formation of the diverticulum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT scan showing no diverticulum or structural abnormalities</t>
+          <t>Manometry showing normal UES function</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A CT scan that does not reveal any diverticulum would provide strong evidence against the diagnosis.</t>
+          <t>Normal UES function on manometry suggests against Zenker's diverticulum, as abnormal UES relaxation is often associated with the condition.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Manometry showing impaired upper esophageal sphincter relaxation</t>
+          <t>CT scan showing a pouch at the posterior hypopharynx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dysfunction of the upper esophageal sphincter is often associated with Zenker's diverticulum, supporting the diagnosis.</t>
+          <t>A CT scan that identifies a pouch at the posterior hypopharynx is suggestive of Zenker's diverticulum due to its anatomical location.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal swallowing function on video fluoroscopy</t>
+          <t>CT scan showing no hypopharyngeal pouch</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If video fluoroscopy shows normal swallowing without signs of obstruction, it suggests that Zenker's diverticulum is not present.</t>
+          <t>A CT scan that does not show a hypopharyngeal pouch is evidence against Zenker's diverticulum, as it would typically be visible if present.</t>
         </is>
       </c>
     </row>
